--- a/Дефициты.xlsx
+++ b/Дефициты.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7460378.162881116</v>
+        <v>9091775.962564442</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7769781.848919459</v>
+        <v>9160500.797010927</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4303883.459704165</v>
+        <v>4427619.219079304</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3683246.653894855</v>
+        <v>4779939.355215716</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4065162.855474393</v>
+        <v>5058729.11402612</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4220303.327261858</v>
+        <v>5659096.107212596</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5768081.961488387</v>
+        <v>6483709.292488916</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3906260.365597941</v>
+        <v>7821162.309547644</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2715203.159599335</v>
+        <v>4698685.310332432</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2926949.887225639</v>
+        <v>3414271.496275289</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4331311.586393008</v>
+        <v>5672909.303422905</v>
       </c>
     </row>
   </sheetData>

--- a/Дефициты.xlsx
+++ b/Дефициты.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9091775.962564442</v>
+        <v>9721888.860360418</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9160500.797010927</v>
+        <v>8456706.380113821</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4427619.219079304</v>
+        <v>6690387.611786095</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4779939.355215716</v>
+        <v>4988321.386246514</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5058729.11402612</v>
+        <v>5178982.3962368</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5659096.107212596</v>
+        <v>5337863.658981216</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6483709.292488916</v>
+        <v>7305353.764700333</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7821162.309547644</v>
+        <v>7976849.89628105</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4698685.310332432</v>
+        <v>4954812.563271768</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3414271.496275289</v>
+        <v>3655809.089618971</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5672909.303422905</v>
+        <v>4582990.259405475</v>
       </c>
     </row>
   </sheetData>
